--- a/deuChatbot/research_result/table_to_json(1500_300).xlsx
+++ b/deuChatbot/research_result/table_to_json(1500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27201,6 +27201,6725 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기시험의 주요 내용과 요구 사항을 잘 반영하고 있지만, 일부 세부사항(예: 배점 비율, 조건 등)이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으나, 일부 세부사항이 생략되어 있어 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 몇 가지 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 세부사항이 누락되어 있어 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.7296643324176033</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 중에서 선택할 수 있는 종목이 있습니다. 각 종목별로 배점 비율이 다르며, 기초디자인과 사고의 전환 두 가지 종목을 준비해야 합니다.
+기초디자인은 켄트지3절 크기의 화지를 사용하여 5시간 동안 진행되며, 주제A와 주제B 중에서 각각 한 개를 선택하여 연결된 주제를 표현합니다. 예시로는 잠자리와 저울을 연결하는 등의 주제가 있습니다.
+사고의 전환도 켄트지2절 크기의 화지를 사용하며, 5시간 동안 진행됩니다. 이 역시 주제A와 주제B 중에서 각각 한 개를 선택하여 연결된 주제를 표현합니다. 예시로는 콜라병과 계절을 연결하는 등의 주제가 있습니다.
+두 종목 모두 볼펜, 연필, 색연필, 수채물감 등 다양한 도구를 사용할 수 있으며, 제공된 사물을 그대로 표현하지 않고 창의적으로 표현해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기 종목과 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있지만, '기초디자인'과 '사고의 전환'의 배점 비율(70%와 30%)에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다릅니다. 따라서 일부 사실이 정확하지 않다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 배점 비율과 같은 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 완벽하지 않으므로 점수를 낮게 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 따라서 약간의 개선이 필요하다고 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율과 같은 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 배점 비율과 같은 잘못된 정보가 포함되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 정확성에서 일부 문제가 있어 점수를 낮추었습니다. 나머지 차원에서는 좋은 성과를 보였습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율과 같은 추가 정보가 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8181446287033384</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환'입니다. 각각의 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인: 70%
+- 사고의 전환: 30%
+준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기 주제는 각 종목에서 주제 A와 주제 B를 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '기초디자인'의 경우 잠자리와 저울, '사고의 전환'의 경우 콜라병과 계절 등이 있습니다.
+화지 크기는 모두 켄트지 3절 또는 2절입니다. 시간은 각 종목 모두 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구 종목의 인정 대회를 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록과 내용이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 경기지도학과의 인정 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회 목록이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.8795423783125316</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴 남자 종목의 인정대회는 다음과 같습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+8. 광역시·도 협회장기 종별대회
+축구 남자 종목의 인정대회는 다음과 같습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회에서 우수한 성적을 거두면 경기지도학과 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 주제 선정 및 연결 방식에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.8023312322183729</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 하나를 선택하여 연결된 주제로 시험을 치릅니다.
+주제A 예시:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B 예시:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에는 이 주제들 중에서 각각 하나씩을 추첨하여 연결된 주제를 만듭니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 학생부 교과 전형에서 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적으로 출결 점수가 다른 전형에서 어떻게 반영되는지에 대한 정보를 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 학생부 교과 전형에서 반영되지 않는다는 주장을 반복하고 있습니다. 추가 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 대한 명확한 답변을 제공합니다. 추가 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 모든 사실이 정확하게 반영되어 있으며, 원본 텍스트의 내용을 충실히 따릅니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7270799953867921</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+출결 점수는 &lt;나&gt;군 실기/실적(경기실적우수자전형)에서만 반영되며, 그 경우 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일: 120점
+- 3~6일: 90점
+- 7~12일: 60점
+- 13~20일: 30점
+- 21일 이상: 0점
+따라서, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "2024년"이라는 추가 정보는 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있습니다. 원본 텍스트는 영어영문학과가 다군 일반학생 전형을 통해 28명을 모집한다고 명확히 언급하고 있지만, 생성된 응답은 모집 인원이 없다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 정보가 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 잘못 전달하고 있습니다. 모집 인원에 대한 정보가 전혀 포함되어 있지 않다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 정보의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.5686528342719981</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 다군 일반 학생 전형의 정원 내 모집인원이 없습니다. 해당 정보에는 영어영문학과에 대한 다군 일반 학생 전형의 정원 내 모집인원이 포함되어 있지 않습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 제공하는 대신, 각 전공의 평균 점수를 제시하고 있습니다. 이는 원본 텍스트의 정보와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트는 수능 영어 등급에 따른 점수를 나열하고 있지만, 생성된 응답은 전공별 평균 점수를 나열하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 수능 영어 등급에 따른 점수에 대한 정보인데, 생성된 응답은 전공별 평균 점수에 대한 정보로 주제가 완전히 다릅니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전공별 평균 점수를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 그러나 내부적으로는 구조가 잘 잡혀 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 부적절하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.744019287065403</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 평균: 3.88 (국어국문학과)
+- 평균: 4.08 (중어중국학과)
+- 평균: 4.60 (일본학과)
+- 평균: 3.13 (영어영문학과)
+- 평균: 3.83 (문헌정보학과)
+이 수치들은 각 모집단위별로 제공된 데이터이며, 이는 해당 단과대학의 수능 영어 등급에 따른 점수를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 출신자는 지원할 수 없으므로, 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있는데, 생성된 응답은 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가라는 점인데, 생성된 응답은 이를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열된 조건을 제시하고 있지만, 원문과의 불일치로 인해 논리적 일관성이 떨어집니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 조건을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7329451541533732</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군의 농어촌학생전형으로 지원하는 것은 가능하지만, 지원 자격 요건을 충족해야 합니다. 주요 조건은 다음과 같습니다:
+1. **6년 과정**: 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자입니다.
+2. **12년 과정**: 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자입니다.
+또한, 지원 자격과 관련된 서류를 제출해야 합니다. 예를 들어, 6년 과정의 경우 중학교와 고등학교의 학교생활기록부, 주민등록초본 등이 필요합니다. 
+따라서, 예술고 학생이 나군 농어촌학생전형으로 지원하려면 해당 조건을 충족하고 필요한 서류를 제출해야 합니다. 자세한 내용은 공식 웹사이트에서 확인하거나 관계 부서에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기록과 배점에 대한 정보가 모두 잘못되었습니다. 원본 텍스트의 기록은 218~221 cm이고 배점은 275점인데, 생성된 응답에서는 202~205 cm와 175점으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 내용의 정확성에 문제가 있어 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용의 정확성 문제로 인해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보가 원본 텍스트와 전혀 일치하지 않기 때문에 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮고 일관성도 부족하지만, 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.9029735696001679</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 202~205cm이며, 이 기록에 대한 배점은 175점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가적으로 제공된 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가적인 비율 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 약간의 혼란이 있을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.7454428761433911</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+출결 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 관련성이 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가 정보도 원본의 맥락을 잘 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.5168044067698551</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+추가 정보:
+- 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있으며, 추가적인 정보 제공을 제안하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 점을 명확히 하고 있습니다. 추가 정보에 대한 안내도 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 수능 최저 기준에 대한 질문에 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 흐릅니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반한 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 뛰어나며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4475583389094881</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 응용화학과에 대한 수능 최저기준 정보가 제공된 내용에는 포함되어 있지 않습니다. 현재 제공된 정보에서는 응용화학과와 관련된 특정 수능 최저기준을 확인할 수 없습니다.
+만약 더 자세한 정보를 원하시면, 동의대학교의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 2024학년도 모집요강을 확인하거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있습니다. 그러나 "새로운 학과로 분리되거나 명칭이 변경된 과목들도 있습니다"라는 문장은 원본 텍스트에 포함되어 있지 않은 정보로, 다소 부정확한 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 일치하지만, 추가된 정보(과목의 분리 및 명칭 변경)는 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분 정확하지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 추가된 정보로 인해 일부 차질이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6461109856188161</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 "심리학과", "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)", 그리고 "경기지도학과"가 있습니다. 이와 함께 새로운 학과로 분리되거나 명칭이 변경된 과목들도 있습니다.
+만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 잘못 제시하고 있습니다. 원본 텍스트에서는 서류가 70%, 면접이 30%라고 명시되어 있지만, 생성된 응답에서는 서류가 60%, 면접이 40%로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 반영 비율에 대한 정보가 서로 상충합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 전형요소 반영 비율에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 비율이 잘못된 점이 아쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 비율의 오류로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 반영 비율이 잘못 기재되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 있지만, 사실성과 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 잘못된 정보를 포함하고 있어 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 비율로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.8282948686673934</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 다음과 같은 비율로 전형요소가 반영됩니다.
+- 서류 (학생부): 60%
+- 면접: 40%
+이와 같이, 서류 평가에서 더 큰 비중을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 정확하게 언급하고 있으며, 가산점의 적용 방식도 올바르게 설명하고 있습니다. 그러나 '의료·보건·생활대학'이 누락되어 있어 완전한 정보는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 원본 텍스트에 포함된 다른 모집단위인 의료·보건·생활대학을 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 수능 가산점 적용 학과에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 가산점 적용 방식에 대한 설명이 명확합니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 의료·보건·생활대학에 대한 언급이 없으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 누락된 정보로 인해 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬운 방식으로 작성되었으나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.8693952329467284</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과는 공과대학, ICT융합공과대학 모집단위입니다.
+가산점은 다음과 같이 적용됩니다:
+- 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+따라서, 공과대학 및 ICT융합공과대학에서 수학을 미적분이나 기하로 응시한 학생에게는 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답에서는 수능 성적이 학생부 종합전형의 서류평가 영역 중 하나로 반영된다고 잘못 설명하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능 성적이 100% 반영된다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주제에서 벗어난 정보가 많습니다. 원문에서 요구하는 수능 성적 반영 방법에 대한 정보가 아닌, 학생부 종합전형에 대한 설명이 주를 이루고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 약해 보이며, 주제 전환이 자연스럽지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 수능 성적의 반영 비율에 대한 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 부분이 많습니다. 원문에서 강조하는 수능 성적의 반영 방식과는 다른 내용을 다루고 있어 의미적으로 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 주제가 명확하지 않아 혼란을 줄 수 있습니다. 원문과의 관계가 불분명하여 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6545009084125536</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 학생부 종합전형의 서류평가 영역 중 하나로 반영됩니다. 특히, 수능 점수는 '수능 4개 영역 등급'과 '수능 4개 영역 (가산점 포함) 표준 변환 점수 합'으로 평가되며, 이는 학업역량을 측정하는 중요한 기준이 됩니다.
+특히, 각 모집단위별로 수능 성적의 평균과 표준 편차가 제공되어 있어, 지원자의 수능 점수가 해당 단과대학의 평균 수준에 비해 어느 정도인지 비교할 수 있습니다. 예를 들어, 인문사회과학대학 국어국문학과에서는 '수능 4개 영역 (가산점 포함) 표준 변환 점수 합'의 평균이 419.33이고, 표준 편차가 9.73이라는 것을 알 수 있습니다.
+따라서 지원자는 자신의 수능 성적을 해당 단과대학의 평균 수준에 비해 어느 정도인지 파악하고, 이를 바탕으로 지원 전략을 세울 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경기지도학과와 디자인조형학과가 제외된다고 언급하고 있지만, 디자인조형학과의 세부 전공(시각디자인, 산업디자인, 공예디자인)에 대한 정보는 원문에 포함되어 있지 않으며, 한의예과와 체육학과가 제외된다는 사실을 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경기지도학과와 디자인조형학과가 제외된다고 일관되게 언급하지만, 원문에서 제외된 다른 학과(한의예과, 체육학과)에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 나군 수능 전형에서 제외되는 학과에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 한의예과와 체육학과에 대한 언급이 없어서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에 명시된 모든 학과를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 누락된 정보로 인해 완전한 적절성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 누락된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.727504174474683</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 경기지도학과와 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)가 제외되었습니다. 
+이 정보는 "2024학년도" 항목 내의 "정시모집군 변경" 섹션에서 확인할 수 있습니다.
+따라서 나군에서는 경기지도학과와 디자인조형학과를 지원하지 못합니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공되어 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.7701853114621762</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 해당 전형의 특징은 다음과 같습니다:
+- **전형 유형**: 학생부교과
+- **전형명**: 다군 학생부종합(재직자전형) - 정원외
+- **모집 인원**: 21명
+- **사정 단계**: 일괄 합산
+- **전형요소 반영비율(%)**:
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 60%
+  - 면접: 40%
+  - 실기: 0%
+  - 수능: 0%
+따라서, 이 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리 정보가 정확하게 전달되고 있습니다. 그러나 "이외에도 여러 학과들이 분리되었습니다."라는 문장은 구체적인 정보를 제공하지 않기 때문에 약간의 불확실성을 포함하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 학과 분리 정보를 정확하게 나열하고 있습니다. 그러나 "이외에도 여러 학과들이 분리되었습니다."라는 문장은 구체적인 학과 목록을 제공하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학과 분리 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 마지막 문장에서 추가 정보에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "이외에도 여러 학과들이 분리되었습니다."라는 문장은 구체적인 사실을 제공하지 않기 때문에 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성에서 좋은 점수를 받았습니다. 그러나 약간의 일관성과 정확성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.6690674954288224</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 '보육·가정상담학과'를 '아동학과', '경제금융보험학과'를 '금융경영학과', '정보경영학부(경영정보학, e비즈니스학)'를 '경영정보학과, e비즈니스학과'로 분리하였습니다. 이외에도 여러 학과들이 분리되었습니다.
+만약 더 자세한 정보가 필요하시다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 추가로 제공된 웹사이트 정보도 관련성이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일에 대한 정보가 일치합니다. 추가 정보도 원본의 주제와 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련된 정보를 제공합니다. 추가적인 웹사이트 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.77385023950201</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷) 마감일은 **2024년 1월 6일(토) 18시까지**입니다.
+추가로 원서접수를 위한 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형 요소의 변화에 대한 잘못된 정보를 포함하고 있습니다. 예를 들어, '나군 학생부교과(농어촌학생전형)'와 같은 전형은 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 다른 전형에 대한 정보를 제공하고 있습니다. 원본 텍스트의 전형 요소 변화와는 상충되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전형 요소 변화에 대한 정보가 아닌 다른 전형에 대한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 모두 낮은 점수를 받으며, 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.7600926119965244</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - **변화**: 이전에는 "학생부 교과", "출결", "서류", "면접", "실기", "수능" 등이 반영되었으나, 2024학년도에는 "학생부 교과", "출결", "서류", "면접", "실기", "수능" 요소가 모두 제외되었습니다. 즉, 전형요소 반영비율은 모두 0%로 변경되었습니다.
+2. **나군 학생부교과(농어촌학생전형) - 정원외 지원자격**:
+   - **변화**: 이전에는 "6년 과정"과 "12년 과정"의 구분이 있었으나, 2024학년도에는 두 가지 유형을 통합하여 단일한 지원 자격 조건으로 변경되었습니다. 
+3. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - **변화**: 이 전형에서도 "학생부 교과", "출결", "서류", "면접", "실기", "수능" 등이 반영되었으나, 2024학년도에는 "학생부 교과", "출결", "실기", "수능" 요소가 모두 제외되었습니다. 즉, 전형요소 반영비율은 "서류"와 "면접"만 남아 70%와 30%로 변경되었습니다.
+이러한 변화는 각 전형에서 서류와 면접의 중요성이 더욱 강조되는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 완전히 부정하고 있습니다. 실기가 포함되지 않는다고 주장하고 있으며, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기 비중이 없다고 주장하는 것은 원본의 내용과 모순됩니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 동의대학교의 실기 비중에 대한 질문에 대한 답변으로는 적절하지 않지만, 나군의 경우에 대한 정보를 제공하고 있습니다. 그러나 주제와 관련된 핵심 정보가 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 나군의 경우에 대한 정보를 포함하고 있지만, 가군에 대한 질문에 대한 답변으로는 일관성이 떨어집니다. 정보가 분리되어 있어 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 실기 비중이 70%라는 사실을 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 응답은 사실성, 일관성, 관련성, 정확성에서 모두 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답은 주제와 관련된 정보를 제공하려고 하지만, 주어진 질문에 대한 적절한 의미를 전달하지 못하고 있습니다. 따라서 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 주제와 관련된 정보가 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6757812309536143</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 아닌 수능만 반영되며, 실기는 포함되지 않습니다. 따라서 실기 비중은 없습니다.
+만약 나군의 경우라면, 디자인조형학과와 체육학과는 실기가 70%이고 수능이 30%를 차지하지만, 가군에서는 실기가 반영되지 않습니다.
+더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8428688852808015</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 다음과 같은 세부 전공을 포함합니다:
+1. **스타트업창업투자학**
+2. **뷰티비즈니스학**
+3. **라이프생활문화학**
+이 세부 전공들은 라이프 융합의 개념에 따라 다양한 산업 분야와 연계되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만이 실기고사에 참여해야 하는 학과로 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. '태권도학과'는 원본에 포함되어 있지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하려고 하지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 그러나 실기고사 일정에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일정과 관련된 정보를 포함하고 있지만, 잘못된 학과 정보로 인해 논리적 흐름이 약간 깨집니다. 그러나 전반적으로는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'는 원본에 언급되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 품질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 관련성도 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.6117861326022214</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 **태권도학과**입니다. 
+실기고사 일정은 다음과 같습니다:
+- **일시:** 2024. 01. 16.(화)
+- **대기실 및 입실시간 안내:** 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.
+이 정보를 참고해 주세요. 추가로 궁금한 점이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 특정 학과 목록(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)을 포함하지 않고 있습니다. 또한, '학생부종합'이라는 용어는 원본 텍스트와 관련이 없으며, 신설된 학과에 대한 정보도 확인되지 않은 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 지원 가능성에 대한 내용을 담고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 특정 학과 목록에 대한 언급이 없기 때문에 관련성이 떨어집니다. 그러나 전반적인 주제는 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 특정 학과 목록과의 연관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 특정 학과에 대한 정보가 누락되어 있으며, 신설된 학과에 대한 언급도 확인되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 담고 있지만, 원본 텍스트의 의미와는 다소 차이가 있습니다. 특정 학과에 대한 정보가 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.5797305684161025</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '학생부종합'에서는 대부분의 학과에 지원이 가능합니다. 그러나 특정 학과는 모집을 중지하거나 변경되었으므로, 정확한 정보를 얻기 위해서는 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 관계자에게 문의하시는 것이 좋습니다.
+특히, 2024학년도에 신설된 학과들 중에서는 '심리학과', '스마트항만물류학과', '창업투자경영학과', '라이프융합학부' 등이 실기/실적 위주 전형을 지원할 수 있을 것입니다. 하지만 이는 공식 정보를 확인해야 확정됩니다.
+따라서, 최신 정보를 얻기 위해서는 공식 웹사이트를 방문하거나 대학 관계자에게 문의하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다. 추가 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 신설 여부에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.7926212583467591</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교에서 라이프융합학부는 다음과 같은 전공을 제공합니다.
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 섹션에서 확인할 수 있습니다. 이 학부는 신설되었으며, 2024년도부터 해당 전공들을 제공하게 되었습니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 지원 자격에 대한 설명이 추가되어 있습니다. 다만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 정보 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉽습니다. 그러나 일부 문장이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.7775740886766735</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교에 속해 있는 경우에도 '일반고', '자율고', '특수목적고' 중 하나로 분류되므로 지원 자격에 해당됩니다.
+만약 더 자세한 정보가 필요하시다면, 제공된 데이터를 바탕으로 한 답변을 드릴 수 있습니다. 하지만 특정 모집단위의 정원 내/외 지원 가능 여부와 같은 세부 사항은 공지사항이나 입학처 웹사이트에서 확인해 보시는 것이 좋습니다.
+[참고 링크] https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보를 완전히 무시하고 있으며, 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않고 있습니다. 대신 신설 학과들에 대한 정보로 대체하고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 그와 관련이 없는 다른 학과들에 대한 정보를 나열하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 주제와 관련이 적은 신설 학과들에 대한 정보로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 신설 학과에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 나열되어 있지만, 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 정확한 정보를 제공하지 않고 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 거의 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 원본 텍스트의 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.5378117875187701</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서는 여러 신설 학과들이 모집되고 있습니다. 그러나 주어진 정보로는 가장 많은 관심을 받고 있는 학과를 명확히 파악하기 어렵습니다. 하지만 몇 가지 신설 학과들을 확인할 수 있습니다:
+1. 스마트항만물류학과
+2. 창업투자경영학과
+3. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+4. 경기지도학과
+특히 '라이프융합학부'는 세 개의 전공을 포함하여 다양한 분야를 아우르고 있어 많은 관심을 받을 수 있습니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본 텍스트는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답은 특정 특수고등학교(과학고, 국제고, 외국어고) 학생들이 지원할 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 지원 자격이 없는 특수목적고등학교에 대한 명확한 규정을 제시하고 있으나, 생성된 응답은 이와 반대되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하여 주제에 대한 적절한 이해를 방해합니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트의 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있어 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적 적절성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5102631751928464</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，东国大学的学生部学科农耕农村学生选拔类型支持以下特殊高中的学生申请：
+- 科学高中 (科学고)
+- 国际高中 (국제고) 
+- 外语高中 (외국어고)
+如果你是上述三类特殊高中的学生，则可以申请东国大学的学生部学科农耕农村学生选拔类型。其他类型的特殊高中则不符合该选拔类型的申请资格。
+如需进一步确认或有其他疑问，建议访问以下网站进行详细查询：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 학과의 합격자 평균 성적"에 대한 언급은 원문에 포함되어 있지 않은 정보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 다른 학과에 대한 정보 요청은 원문과 모순되는 부분이 있습니다. 원문은 특정 학과에 대한 정보가 없음을 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요청된 정보와 관련이 있으며, 필요한 정보를 찾기 위한 링크를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 원문과의 일관성 문제로 인해 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높지만, 다른 학과에 대한 언급은 원문과의 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬우나, 일부 문구가 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.7818804351386862</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 학과의 합격자 평균 성적에 대해 알고 싶으시다면, 해당 학과의 정보를 알려주시면 도와드리겠습니다. 필요한 정보가 있다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부에 대한 데이터가 없다는 점을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "다른 전공의 최고합격자 평균 성적이나 관련 정보만이 포함되어 있습니다"라는 부분은 원본 텍스트에서 언급되지 않은 내용으로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, "다른 전공의 최고합격자 평균 성적"이라는 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "deu. ac. kr" 부분에서 불필요한 공백이 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 추가된 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.767002395581361</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전공의 최고합격자 평균 성적이나 관련 정보만이 포함되어 있습니다. 필요하신 정보를 찾을 수 없으면 공식 웹사이트 https://ipsi. deu. ac. kr/main. do에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 관련된 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본 텍스트에는 최초 합격자 등록에 대한 언급이 없으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 부족합니다. 특히 최초 합격자 등록에 대한 정보가 원본 텍스트에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있어 대체로 관련성이 높습니다. 그러나 추가된 등록 정보가 원본 텍스트의 주제와 완전히 일치하지 않기 때문에 점수가 다소 낮아졌습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 각 발표 일정이 논리적으로 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 특히 최초 합격자 등록 날짜와 관련된 정보는 원본에 없으므로 정확성이 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 점수가 낮아졌습니다. 그러나 유창성과 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 의미가 약간 왜곡될 수 있습니다. 그러나 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.8134234245294909</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다.
+1. **최초 합격자 발표 및 등록**
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언과 예시를 제시하고 있습니다. 원본 텍스트의 구체적인 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접고사 일정이 대학마다 다르다는 내용을 포함하고 있습니다. 이는 원본 텍스트의 특정 일정을 무시하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 면접고사 일정에 대한 질문에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 일정에 대한 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 중복된 표현이 있어 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실(면접고사 일정)을 정확히 반영하지 않으며, 일반적인 정보로 대체하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.3412701535242612</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>면접고사의 일정은 대학마다 다르므로, 정확한 날짜와 시간을 확인하기 위해서는 해당 대학의 입학처 웹사이트를 방문하거나, 입학 상담을 받는 것이 좋습니다. 특히 "https://ipsi.deu.ac.kr/main.do" 링크에서 제공하는 정보를 참고하시면 도움이 될 것입니다. 면접일정은 일반적으로 수능 이후에 이루어지며, 대략적인 일정을 알려드리자면 12월 중순부터 시작될 수 있습니다. 하지만 이는 각 대학마다 다르므로 확인이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 이어받아 설명하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6075404853023608</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. 만약 더 자세한 정보를 원하신다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적으로 각 전형별로 수능 위주로 합격자를 선발하고 있다는 정보도 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 점을 명확히 하고 있습니다. 전형별 수능 점수 반영에 대한 정보도 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 질문에 대한 충분한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 사실적으로 정확하며, 동의대학교의 수능 최저학력 기준에 대한 정보를 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.613584008734595</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 모든 전형에서 수능 최저학력 기준이 없습니다. 각 전형별로 수능 위주로 합격자를 선발하며, 일부 전형은 수능 점수를 30%까지 반영하고 있습니다.
+만약 더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일을 잘못 기재하고 있습니다. 원본 텍스트에 따르면 1차 발표는 2024년 2월 14일에 이루어지지만, 생성된 응답에서는 2024년 2월 15일로 잘못 언급되었습니다. 2차 충원합격자 발표에 대한 정보는 원본과 일치하지만, 1차 발표에 대한 오류로 인해 전체적인 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 1차 발표일이 잘못 기재되어 있어 일관성이 부족합니다. 2차 발표와 3차 이후 발표에 대한 정보는 일치하지만, 1차 발표에 대한 불일치로 인해 전체적인 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 체계적으로 전달하고 있습니다. 그러나 1차 발표일의 오류로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 1차 발표일에 대한 부정확한 정보를 포함하고 있어 정확성 점수가 낮습니다. 나머지 정보는 정확하지만, 1차 발표일의 오류가 전체적인 정확성을 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 1차 발표일의 오류로 인해 일부 점수가 낮아졌습니다. 나머지 요소들은 잘 반영되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 발표 일정에 대한 정보를 적절하게 전달하고 있습니다. 다만, 1차 발표일의 오류로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 1차 발표일의 오류로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.8502867230362191</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 진행됩니다. 
+- 첫 번째 충원합격자는 2024년 2월 15일(목) 09:00에 발표됩니다.
+- 두 번째 충원합격자는 2024년 2월 15일(목) 09:00~16:00 사이에 등록이 가능합니다.
+- 세 번째 이후의 충원합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 이루어집니다.
+이와 같이, 충원합격자는 여러 차례에 걸쳐 발표되며, 각각의 발표 시점과 등록 기간을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 충원합격자 발표 일정에 대한 정보를 완전히 무시하고 있으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에는 명확한 일정이 나와 있지만, 생성된 응답은 그에 대한 언급이 전혀 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 구체적인 날짜와 시간을 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 충원합격자 발표 일정에 대한 정보인데, 생성된 응답은 그와 관련된 정보가 없고, 웹사이트 방문을 권장하는 내용만 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 전혀 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 원본 텍스트의 정보가 무시되고, 관련 없는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.4160644225762373</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표의 일정에 대한 내용이 없습니다. 추가합격자 발표일정과 관련하여 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시는 것이 좋습니다. 해당 사이트에서 최신 공지사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 "추가 모집이 없습니다"라고 명시하고 있지만, 원문에서는 추가 모집이 있을 수 있다는 내용을 포함하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 추가 모집이 가능하다고 명시하고 있으나, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 언급된 추가 모집 가능성에 대한 정보를 잘못 해석하고 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성에 문제가 있어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.514279459930143</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보를 바탕으로 보면, 추가 모집이 없습니다. 각 단과대학 및 모집단위별 정원 내 모집 인원은 이미 결정되어 있으며, 추가 모집에 대한 언급은 없습니다. 만약 추가 모집이 있을 경우, 일반적으로 대학 홈페이지에서 공지가 되므로 [https://ipsi.ipsi.ipsi.ipsi] 링크를 참조하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 지원자격과 제출서류에 대한 구체적인 내용이 누락되어 있습니다. 또한, 재직자 또는 성인학습자를 대상으로 한다는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 예를 들어, 지원자격에 대한 설명이 원본 텍스트와 다르며, 제출서류에 대한 정보도 불완전합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과 일부 관련이 없거나 잘못된 정보가 포함되어 있습니다. 그러나 전반적으로 주제와 관련이 있는 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 연결이 약해집니다. 특히, 지원자격과 제출서류에 대한 설명이 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 지원자격에 대한 설명이 잘못되어 있으며, 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 이로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 정보가 잘못되거나 누락되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 정보의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.6122173000814017</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합전형의 일환으로, 재직자 또는 성인학습자를 대상으로 합니다. 이 전형에서는 지원자의 학업역량과 전공적합성을 평가합니다. 서류평가와 면접평가를 통해 총점이 산출되며, 서류평가의 비중은 70%, 면접평가의 비중은 30%입니다.
+서류평가에서는 고교 학교생활기록부 또는 검정고시 성적증명서 등이 필요합니다. 지원자는 자신의 재직기간과 근무하는 사업체의 정보를 제출해야 합니다. 또한, 지원자의 학업태도와 성취정도, 전공에 대한 관심과 이해도 등을 평가받습니다.
+면접에서는 문제해결능력과 진로정보 탐색능력을 평가합니다. 지원동기 및 학업계획을 발표하고, 학업역량과 전공적합성에 대해 질문이 이루어집니다. 면접은 개별적으로 진행되며, 1인당 10분 이내의 시간이 주어집니다.
+평생학습자전형에서는 제출서류의 진위여부를 확인하기 위해 블라인드 면접 방식을 사용합니다. 또한, 동점자 처리기준은 면접고사 성적 상위자부터 차례대로 서류평가 공동체역량 영역 성적 상위자와 전공적합성 영역 성적 상위자를 우선으로 합니다.
+이러한 절차를 통해 평생학습자전형의 지원자가 학업역량과 전공적합성을 입증할 수 있습니다. 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 조건만 제시되었으나, 생성된 응답은 국가 또는 지방자치단체 및 공공단체 소속 직원, 근로기준법에 따른 조건 등 전혀 다른 조건을 나열하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 지원자격과 생성된 응답의 내용은 서로 다른 조건을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평생학습자전형의 지원자격에 대한 간단한 설명을 제공하는 반면, 생성된 응답은 전혀 다른 조건을 나열하고 있어 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 일관성을 가지고 있으나, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있으나, 내용이 부적절하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.5974239621743253</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 국가 또는 지방자치단체 및 공공단체 소속 직원이어야 합니다.
+2. 근로기준법 제11조에 따라 상시근로자 5인 이상 사업체에서 근무해야 합니다 (사업주 포함).
+3. 4대 보험 중 하나 이상 가입된 사업체에서 근무해야 합니다 (창업자 또는 자영업자도 가능합니다).
+단, 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가 또는 지방자치단체가 발급하는 공적증명서를 통해 인정받을 수 있습니다.
+위와 같은 조건을 충족해야 합니다. 자세한 내용은 해당 학교의 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하는 원본 텍스트와 상반된 내용을 담고 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 명확히 제공하고 있지만, 생성된 응답은 그러한 정보를 찾을 수 없다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 실기고사에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그 정보를 부정하고 다른 웹사이트를 방문하라고 안내하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 원본 텍스트는 실기고사에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 그와 관련된 정보가 없다고 하여 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보와 관련된 내용이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 구체적인 정보를 제공하지 않고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다. 원본 텍스트의 정보를 무시하고 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로는 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.3638277232481672</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사와 관련된 내용은 찾을 수 없습니다. 만약 특정 단과대학이나 학과의 실기고사에 대한 정보가 필요하다면, 해당 단과대학 또는 학과의 웹사이트를 방문하여 자세한 정보를 확인해 보시는 것이 좋습니다. 필요한 경우 "https://ipsi. deu. ac. kr/main. do" 를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 배점에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 핵심 정보를 반영하지 않으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 아닙니다. 따라서 관련성은 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 종목과 배점에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미적으로 적절성은 있지만, 원본 텍스트와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 질문에 대한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.2793276683910891</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 "실기고사 체육학과" 섹션을 참조하시면 됩니다. 
+체육학과의 실기고사는 다음과 같은 종목들이 있습니다:
+1. 제자리 멀리뛰기 (24% 배점)
+2. 메디신볼 던지기 (23% 배점)
+3. Z-런 (23% 배점)
+각 종목별로 배점이 정해져 있으며, 등급에 따라 해당 종목에서 얻을 수 있는 최고 점수도 제시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, "일부 학과에서는 개별 전화 통보를 통해 합격자를 안내하는 경우가 있습니다"라는 부분은 원문과 상충합니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있으며, 3차 이후에만 전화 통보가 이루어진다고 설명하고 있습니다. 따라서 일부 학과에서 전화 통보를 한다는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 전화 통보에 대한 정보가 상충하여 일관성이 떨어집니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 하고 있기 때문에, 생성된 응답의 내용은 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 수시 충원합격자 발표와 관련된 정보를 제공하며, 질문의 주제와 직접적으로 관련이 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 전화 통보에 대한 상충된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전화 통보에 대한 잘못된 주장이 포함되어 있어 정확성이 떨어집니다. 원문과의 불일치로 인해 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다. 여러 차원에서의 평가가 낮아져 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, 전화 통보에 대한 잘못된 정보로 인해 의미 전달이 완벽하지는 않습니다. 그러나 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 정보의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6061656228527955</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024학년도 수시 모집에 대한 충원 합격자 발표 후에는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한, 일부 학과에서는 개별 전화 통보를 통해 합격자를 안내하는 경우가 있습니다. 하지만 모든 학과에서 전화 통보를 하는 것은 아닙니다. 자세한 사항은 입학관리팀에 문의하시거나 공지된 일정을 참고해주세요. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 2024학년도에 대한 정보는 원본 텍스트와 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점에서 일관성을 유지하고 있지만, 2024학년도에 대한 정보가 추가되어 있어 원본 텍스트와의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 질문에 대한 답변으로 적절하지만, 2024학년도에 대한 정보는 질문의 주제와 직접적으로 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점에서 정확하지만, 2024학년도에 대한 정보는 원본 텍스트와 관련이 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 2024학년도에 대한 정보가 포함되어 있어 일부 차원에서 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 2024학년도 정보는 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.7962086266717826</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 목록 내에서는 확인할 수 없습니다. 하지만, 2024학년도 경찰행정학과의 모집 상황을 살펴보면, 2024년에는 모집 인원이 7명이고 지원 인원은 29명으로 경쟁률이 4.14:1 이며, 충원 합격자는 7명입니다.
+더 구체적인 2023학년도의 수시모집 결과를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능에 응시하지 않으면 정시모집에 지원할 수 없다는 사실을 부정하고 있으며, 이는 명백한 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 정시모집에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 아니므로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 관계에서 일관성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 사실과 다르며, 수능에 응시하지 않으면 지원할 수 없다는 원본의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 내용의 정확성이 결여되어 있어 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.5582377711112869</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2024학년도까지의 정보로는 정시 모집에서 수능을 응시하지 않더라도 지원이 가능합니다. 하지만 특정 전형에서는 수능 점수가 필요할 수 있으므로, 각 전형별로 요구되는 자격 조건을 확인하시기 바랍니다.
+더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 고등학교 졸업 후 정시 지원 가능성에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트는 졸업 시기와 관계없이 정시 지원이 가능하다고 명확히 언급하고 있지만, 생성된 응답은 특정 전형에 대한 정보로 혼동을 주고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 특정 전형에 대한 제한을 언급하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보로 대체하고 있습니다. 원본 텍스트의 핵심 주제인 정시 지원 가능성에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 혼란스러워서 읽기 쉽지 않습니다. 원본 텍스트와의 연결이 부족하여 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약하여 일관된 메시지를 전달하지 못합니다. 정보가 분산되어 있어 이해하기 어렵습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 이해하기 어려운 부분이 많고, 원본 텍스트와의 관련성이 부족하여 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.4602513454018111</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>您的问题与提供的招生信息不完全匹配。根据您提供的信息，"나군 학생부교과(농어촌학생전형)" 和 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)" 是针对特定类型的考生的招生计划，并不是面向所有高中的毕业生。
+如果您已经高中毕业10年并且希望申请大学，您可能需要查看一般招生计划（如普通高考或自主招生等），这些计划通常没有对毕业时间的具体限制。建议访问学校官网 https://ipsi. deu. ac. kr/main. do 获取最新的招生信息和具体的报考要求。
+如果有其他具体问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.804541578716654</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지입니다.
+   - 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)에서 가능합니다.
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착해야 합니다.
+   - 서류 제출 대상에 따라 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **실기고사** (2024. 01. 16.)
+   - &lt;가&gt;군 실기고사는 레저스포츠학과와 태권도학과에서 진행됩니다.
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **디자인조형학과 실기고사** (2024. 01. 17.)
+   - &lt;나&gt;군 실기고사는 디자인조형학과(시각디자인, 산업디자인, 공예디자인)와 체육학과에서 진행됩니다.
+   - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024. 02. 02.)
+   - 최초 합격자 발표는 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 14:00에 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **등록금 납부 및 합격자 등록** (2024. 02. 07. ~ 02. 13.)
+   - 이 기간 동안 학교 지정은행에서 등록금을 납부하고 합격자를 등록해야 합니다.
+8. **충원 합격자 발표 및 등록** (2024. 02. 14.)
+   - 충원 합격자는 1차, 2차로 발표되며 각각 09:00와 19:00에 이루어집니다.
+   - 이 기간 동안 학교 지정은행에서 등록금을 납부하고 합격자를 등록해야 합니다.
+9. **충원 합격자 3차 이후 발표 및 등록** (2024. 02. 15.)
+   - 이 부분은 개별 전화 통보를 통해 이루어집니다.
+   - 학교 지정은행에서 등록금을 납부하고 합격자를 등록해야 합니다.
+이상과 같이 동의대학교 정시 모집의 일정을 설명하였습니다. 자세한 내용이나 추가적인 질문이 있으시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학관리팀에 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8917759811138716</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 주요 내용: 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 주요 내용: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com에서 접수
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 주요 내용: 서류 제출대상은 접수사이트에서 확인 가능하며, 우편발송용 표지를 출력하여 부착하거나 우편으로 제출
+4. **실기고사**:
+   - 날짜 및 모집단위별 일정:
+     - &lt;가&gt;군 실기고사 (레저스포츠학과 태권도학과): 2024년 1월 16일 (화)
+     - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과): 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행
+6. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표 및 등록: 2024년 2월 14일 (수) 9시 ~ 16시
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령
+7. **3차 이후 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+     - 개별 전화 통보 시 안내
+이 일정은 일반 학생전형에 대한 설명이며, 특정 모집단위의 세부 정보는 각 단과대학 및 모집단위를 참조해 주세요. 추가로 궁금한 사항이 있으면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하고 있지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 정시 모집에 대한 정보를 제공하고 있지만, 원문에서 언급된 수능 미응시자의 지원 불가능성에 대한 내용을 무시하고 있습니다. 따라서 관련성은 있지만, 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 수능 미응시자에 대한 정보가 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 수능 미응시자가 지원할 수 있다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원문에서 수능 미응시자는 지원이 불가능하다고 명시하고 있는데, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 명확성은 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6929713658874498</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 '학생부종합(평생학습자전형)'이 수능 미응시자도 지원 가능합니다. 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 개방되어 있습니다.
+더 자세한 내용은 공식 웹사이트를 참조해주세요: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않고 있으며, "충원 합격 후보 순위"라는 표현은 원문에 없는 내용입니다. 원문에서는 충원 합격이 36명까지 이루어졌다고 명시하고 있지만, 생성된 응답에서는 이 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "충원 합격 후보 순위"라는 표현은 원문과 모순됩니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 후보 순위에 대한 언급을 하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 웹사이트를 통해 더 많은 정보를 얻으라는 점에서 관련성이 높습니다. 그러나 원문에서 제공된 구체적인 정보(36명까지의 충원 합격)에 대한 언급이 없어서 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "충원 합격 후보 순위"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실(36명까지의 충원 합격)을 누락하고 있으며, "충원 합격 후보 순위"라는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. "충원 합격 후보 순위"라는 표현은 원문에서 언급되지 않은 내용으로, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 특정 용어의 사용으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.6275432318926948</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격 후보 순위에 대한 데이터가 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시거나, 대구경북과학기술대학교 입학처에 직접 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명확히 제시하고 있지만, 생성된 응답은 전화번호가 없다고 주장하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 전화번호를 제공하지 않고, 대신 다른 정보를 제시합니다. 원본 텍스트의 핵심 주제와 관련이 적어 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 불일치로 인해 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 전화번호에 대한 언급이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 담고 있습니다. 전화번호가 없다고 주장하는 것은 원본의 의미를 왜곡하는 결과를 초래합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.6641156186724385</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가로 전화하여 확인하거나, 공식 웹사이트를 방문하여 연락처를 확인해 보세요. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우 해당 합격자를 처리하지 않는다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 다음 순위의 합격자를 처리한다고 하여 원문과 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 원문에서의 중요한 세부사항을 놓치고 있습니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 일관성이 부족하여 전체적으로 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 세부사항에서 차이가 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.6132245857160313</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자를 처리하지 않습니다. 대신 다음 순위의 합격자를 처리하게 됩니다. 따라서 전화 통화가 되지 않으면 그 학생은 충원되지 않고, 다른 합격자에게 기회가 주어집니다.
+만약 더 자세한 정보를 원하시거나 추가적인 질문이 있으시다면 https://ipsi.deu.ac.kr/main.do로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류 목록을 제공하고 있지만, 원본 텍스트에 포함된 중요한 서류와 조건들이 누락되어 있습니다. 예를 들어, 6년 과정과 12년 과정에 대한 구체적인 서류가 포함되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 요구하는 서류와 조건들이 다르게 제시되거나 누락되어 있어, 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 따라서 관련성 점수가 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 일관성을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 필요한 서류와 조건들이 정확하게 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 정보의 정확성도 떨어지기 때문에 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 원본 텍스트와 다르게 제시되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7256133507578182</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다.
+1. **고교 졸업(예정)자**
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자가 있는 경우 제출하지 않아도 됩니다.)
+2. **검정고시출신자**
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자가 있는 경우 제출하지 않아도 됩니다.)
+   - 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+3. **외국고교 졸업(예정)자**
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+     - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+     - 모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+4. **추가 제출서류 (외국고교 졸업예정자만 필요)**
+   - 2024년 2월 16일까지 외국고교 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 추가 제출해야 합니다.
+위와 같은 서류들을 준비하여 농어촌학생전형으로 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 정확하게 반영하고 있지만, "중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 6년과정 서류제출 가능"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보로 인해 일관성이 떨어지는 부분이 있습니다. 원본 텍스트에는 6년 과정 서류 제출 가능성에 대한 언급이 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미와 다소 어긋나므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.8348648906786952</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌 학생부교과 전형에 지원 시 다음과 같은 서류를 제출해야 합니다.
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 추가로 필요할 수 있는 서류는 다음과 같습니다.
+- 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 6년과정 서류제출 가능
+위와 같은 서류를 정확하게 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 반영하고 있지만, "현재 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 결론을 내릴 수 없다"는 부분은 다소 모호하게 표현되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 기회균등 전형이 존재하지 않는다는 사실과 일치하지만, "결론을 내릴 수 없다"는 표현은 원문과의 일관성을 떨어뜨립니다. 원문은 명확하게 전형이 존재하지 않음을 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 정보를 요청하는 질문에 적절하게 대응하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 전반적으로 문장은 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 다만, "결론을 내릴 수 없다"는 부분이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, 결론을 내릴 수 없다는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 표현에서 약간의 모호함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 적절하게 부합하지만, "결론을 내릴 수 없다"는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.6650536466383338</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에 대한 저소득 기회균등 전형의 내용이 없습니다. 따라서, 현재 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 결론을 내릴 수 없습니다. 
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문하여 정시 모집의 전형별 내용을 확인해보시거나, 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5 등급이 절사되지 않는다고 주장하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 원문이 명시한 절사 여부에 대한 불확실성을 간과하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으나, 원문에서 언급된 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다. 그러나 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 원문에서의 불확실성을 반영하지 않아 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 특히, 절사 여부에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문에서의 맥락을 무시하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7312997809205751</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 2.5 등급으로 평균산출됩니다.
+수능 최저등급에서 사탐 2 과목의 평균산출 방식은 각 과목의 등급을 그대로 사용하여 평균을 구합니다. 따라서 2.5 등급이 나왔다면, 이는 평균산출에 포함될 것입니다.
+만약 특정 모집단위에서 사탐 2 과목의 최저등급이 3.0 이상이라면, 2.5 등급은 충분히 합격 조건을 만족할 수 있습니다. 반대로 만약 최저등급이 3.0보다 높다면, 2.5 등급으로는 불합격일 것입니다.
+자세한 내용은 해당 모집단위의 공지사항이나 입학처 웹사이트를 확인하시거나, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 2차 발표 일정이 잘못 기재되어 있으며, 2차 발표는 2024년 2월 15일(목) 오전 9시에 이루어져야 합니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 2차 발표 일정에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 합격자 발표에 대한 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높게 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적인 유창성은 양호합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 2차 발표 일정의 오류로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 2차 발표 일정의 오류로 인해 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 오류로 인해 점수가 다소 낮아졌습니다. 여러 차원에서 균형 잡힌 성과를 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현에서 약간의 어색함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.8386581736572929</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자는 총 3차로 발표됩니다. 
+1차 발표 일정은 2024년 2월 14일(수) 오전 9시입니다.
+2차 발표 일정은 같은 날 오후 9시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+3차 이후 발표는 2024년 2월 15일(목) 저녁 7시부터 2024년 2월 20일(화) 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 3차로 합격자 발표가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 수능 성적 기준에 대한 구체적인 정보를 제공하지 않지만, 원본 텍스트에서 제시된 평균 점수와 관련된 정보를 언급하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 수능 성적이 4.6점일 경우의 가능성을 언급하고 있지만, 생성된 응답은 그러한 가능성을 전혀 언급하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치나 조건을 반영하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 조건을 반영하지 않기 때문에 정확성이 떨어집니다. 원본 텍스트의 정보를 기반으로 한 판단이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 연결이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.5282065797200536</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "e비즈니스학과"에 대한 특정한 지원 자격이나 모집 인원, 경쟁률 등의 데이터가 없습니다. 따라서 e비즈니스학과의 수능 성적 기준을 통해 정시 전형으로 추가 합격 가능 여부를 판단하기 어렵습니다.
+이런 경우에는 다음과 같은 정보를 확인해야 합니다:
+1. 해당 학과의 2024년도 모집 인원
+2. 지원자의 수와 경쟁률
+3. 학교에서 발표한 정시 전형의 합격 기준 점수
+위 정보들을 통해 더 정확하게 판단할 수 있습니다. 만약 이러한 정보가 필요하다면, 동의대학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나 관계부서에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 전형 요소와 지원 자격에 대한 정보를 제공하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보와 비교할 때, 평균 등급보다 높은 성적을 요구하는 점이 명확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 전형 요소와 관련된 세부 사항이 추가되어 있어 일관성이 떨어질 수 있습니다. 특히, 수능 점수가 요구되지 않는다는 점은 원본 텍스트와의 일관성을 약간 해치는 요소입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e비즈니스학과의 지원 자격 및 전형 요소에 대한 정보를 제공하며, 질문의 핵심 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원본 텍스트의 평균 등급 정보와 비교할 때 일부 세부 사항이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 다만, 일부 추가 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.6314011320500607</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 지원 자격 및 전형 요소를 살펴보겠습니다.
+1. **전형 유형**: e비즈니스학과는 "학생부교과"로 분류되어 있습니다.
+2. **모집 인원**: 7명입니다.
+3. **사정 단계**: 일괄 합산입니다.
+4. **전형요소 반영비율(%)**:
+   - 학생부 교과: 0%
+   - 출결: 18%
+   - 서류: 70%
+   - 면접: 12%
+   - 실기: 0%
+   - 수능: 0%
+5. **수능최저기준**: 없으므로 수능 점수가 요구되지 않습니다.
+**고교유형별 지원 자격** 부분을 보면, e비즈니스학과는 일반적으로 고등학교 졸업자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다. 따라서 정시 등급 5.3의 경우, 이 점수만으로 최초 합격 가능성은 매우 낮습니다.
+**학생부 교과성적 반영방법** 부분을 보면, e비즈니스학과는 학생부 교과 성적이 반영되지만, 출결(18%), 서류(70%), 면접(12%)의 비율이 높습니다. 이 중에서 특히 서류 평가가 70%를 차지하고 있어, 서류 준비와 면접 준비가 중요합니다.
+따라서 정시 등급 5.3만으로는 e비즈니스학과에 최초 합격 가능성은 낮습니다. 이 점수로는 서류 평가에서 좋은 결과를 얻기 어렵고, 면접에서도 경쟁력을 갖추기 힘들 것입니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 "e비즈니스학전공"이 신설되지 않았다고 주장하지만, 원본 텍스트는 e비즈니스학과의 예비 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서, 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 정보를 제공하지 않고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 예비 합격 가능성에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 합격 가능성에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.6238109955678275</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설된 전공 중 "e비즈니스학전공"이 없습니다. 현재 정보로는 해당 전공이 없으므로, 예비합격 여부를 판단하기 어렵습니다.
+추가적인 정보를 제공해주실 수 있으신가요? 예를 들어, 관심 있는 학과나 전공이 무엇인지 알려주시면, 그에 따른 지원 가능성을 확인해드릴 수 있습니다. 
+만약 특정 학과에 대한 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 공식 웹사이트에서 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 점수와 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있지만, 전반적으로 정확한 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 간호학과의 평균 점수와 경쟁률에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 직접적으로 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 분석을 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에서 제공된 특정 수치나 평균에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.6390028107382901</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집 경쟁률과 평균 점수를 살펴보겠습니다.
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 357.63
+당신의 성적은 3.44입니다. 간호학과의 평균 점수가 357.63이고, 표준 편차가 5.37이므로, 당신의 성적이 평균보다 약간 낮습니다.
+하지만, 경쟁률이 매우 높고, 합격 인원이 많지 않기 때문에, 합격 가능성은 낮을 수 있습니다. 그러나 표준 편차가 크다는 점에서, 당신의 성적이 평균보다 약간 낮더라도, 충분히 합격할 수 있는 기회는 있을 수 있습니다.
+결론적으로, 합격 가능성은 낮지만, 아직 확실하지 않은 상황입니다. 추가 정보나 개인적인 경쟁력을 고려하여 결정을 내리는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 평균 점수와 표준 편차에 대한 정보는 출처에 명시된 내용과 일치하지 않으며, 합격 가능성에 대한 결론도 출처의 정보와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출처의 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 평균 점수와 경쟁률에 대한 정보는 출처에서 제공된 데이터와 일치하지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 출처와 관련이 없고 잘못된 데이터에 기반하고 있어 적절한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 출처의 정보와 상충하는 내용이 포함되어 있어 전체적인 일관성이 떨어집니다. 정보의 연결이 매끄럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 출처의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 평균 점수와 경쟁률에 대한 정보는 출처와 일치하지 않으며, 이는 정확성을 심각하게 저해합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 출처의 정보와 일치하지 않으며, 신뢰할 수 없는 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않은 부분이 많습니다. 출처의 맥락과 맞지 않는 정보가 포함되어 있어, 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 정보의 정확성이 떨어지기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.6752194826343991</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집 상황을 보면, 평균 점수는 353.48이고 표준 편차는 4.66입니다. 현재 제시된 성적인 2.52는 이 기준에 크게 미치지 못합니다.
+간호학과의 경쟁률은 6.59로 매우 높습니다. 평균 점수가 상당히 높고 표준 편차가 작기 때문에, 성적 2.52를 가진 지원자는 충분한 경쟁력을 갖추지 못할 가능성이 큽니다.
+따라서, 현재의 성적을 가지고 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 예상됩니다. 그러나 정시 모집은 다양한 요인들이 작용하므로, 최종 합격 여부는 수험번호, 지원 순위 등 다른 요소들에 따라 달라질 수 있습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, https://ipsi.deu.ac.kr/main.do를 참조해보시거나 관계된 학교의 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 3.7의 성적이 평균 등급보다 낮다고 명시하고 있지만, 생성된 응답에서는 3.7이 좋은 점수라고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 3.7의 성적이 낮다고 명시하고 있는데, 생성된 응답에서는 이를 반박하는 내용이 포함되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하는 것과 관련된 정보를 제공하고 있지만, 원문에서 제시된 성적에 대한 직접적인 답변이 부족합니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 성적에 대한 해석이 원문과 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 3.7의 성적이 낮다고 명시된 원문과 달리, 생성된 응답에서는 이를 긍정적으로 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족합니다. 특히 성적에 대한 해석이 잘못되어 있어 의미적으로 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 내용이 혼란을 줄 수 있는 부분이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6020567671688833</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경 정보를 바탕으로 간호학과에 지원하는 것이 가능하지만, 정확한 합격 여부는 해당 대학에서 발표하는 최종 합격선을 확인해야 합니다. 현재 제공된 정보로는 간호학과가 신설되지 않았으며, 전형 변경 사항은 없습니다.
+정시 모집군의 경우 성적 외에도 다양한 요소들이 고려되므로, 3.7의 성적이 좋은 점수라는 것은 사실입니다만, 합격 여부를 결정하는 요인은 다양합니다. 따라서 최종 합격선을 확인하시고 지원하시면 좋겠습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 점수와 표준 편차를 언급하고 있지만, 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 정시 성적이 2.58일 경우 합격 가능성이 높다고 언급하고 있으나, 생성된 응답은 이 성적이 평균보다 낮다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 말하는 반면, 생성된 응답은 이 성적이 평균보다 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 동의대학교 간호학과에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 포인트와는 다소 다른 방향으로 나아가고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 읽기 어려운 부분이 있습니다. 특히 중국어와 한국어가 섞여 있어 흐름이 매끄럽지 않습니다. 문법적으로는 큰 오류가 없지만, 언어의 일관성이 부족합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어려운 부분이 있습니다. 정보는 제공되지만, 명확하게 전달되지 않아 이해하기 힘든 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.5892953732256475</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>353.48이라는 평균 점수와 4.66이라는 표준 편차를 가지고 있는 동의대학교 의료보건생활대학 간호학과의 경우, 정시 성적이 2.58인你是说这位同学的语文、数学和两门选修科目的标准转换总分是2.58吗？根据提供的信息，东国大学医疗保健生活学院护理学专业的平均标准转换总分为353.48，标准差为4.66。如果这位同学的标准转换总分是2.58，那么这个分数明显低于该专业的平均值，因此按照目前的信息来看，这位同学可能不太可能通过正考（普通招生）的方式被东国大学护理学专业录取。
+不过，具体情况还需要考虑其他因素，例如是否有特殊才能、是否符合特定的录取条件等。如果想要进一步确认，建议直接访问东国大学官网或联系学校招生办公室获取最准确的信息。你可以参考提供的链接“https://ipsi. deu.ac.kr/main.do”来查询更多详细信息。
+번역된 답변은 다음과 같습니다:
+정시 성적이 2.58인 경우 동의대학교 의료보건생활대학 간호학과에 정시 전형으로 합격하기는 어려울 것으로 보입니다. 해당 전공의 평균 표준 변환 점수는 353.48이고, 표준 편차는 4.66이므로, 제공된 성적은 평균보다 상당히 낮습니다.
+그러나 특정한 특기사항이나 특별한 합격 조건 등에 따라 달라질 수 있으므로, 최종 결정을 내리기 위해서는 동의대학교 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 더 자세히 확인하거나, 직접 입학처와 연락하여 상담 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 예비 7번의 합격 가능성이 낮다고 언급한 원본 텍스트와 상반된 내용을 담고 있습니다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시했으나, 생성된 응답에서는 가능성이 높다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 없습니다. 원본의 내용과 충돌하는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 예비 7번에 대한 정보를 제공하고 있으나, 원본의 핵심 내용인 충원합격 가능성에 대한 정보와는 다소 동떨어져 있습니다. 관련 정보는 포함되어 있지만, 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 정면으로 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 정확성에서 심각한 문제를 보이고 있어 다차원적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 내용이 포함되어 있으나, 원본의 맥락과는 맞지 않기 때문에 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.6599416247160711</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>7번 예비번호를 가진 게임공학과 지원자는 정원 내 모집 인원이 40명이고, 현재 가군, 나군, 다군 모두 일반 학생 모집 인원은 0명입니다. 따라서, 현재로서는 붙을 가능성이 높습니다.
+하지만, 최종 결정은 입학사정관이 실시하는 정시모집에서 이루어지므로, 정시모집 결과를 기다려보시는 것이 좋겠습니다. 또한, 경쟁률과 모집인원의 변화 등 다양한 요인이 영향을 미칠 수 있으므로, 최신 정보를 확인하시기 바랍니다.
+더 궁금한 사항이 있으면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 게임공학과의 모집 전형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 정시 전형으로 지원할 수 있다고 언급하고 있지만, 생성된 응답에서는 일반학생전형을 통해 모집하지 않는다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 4.16의 성적이 평균보다 높아 합격 가능성이 높다고 언급했으나, 생성된 응답은 추가 합격이 불가능하다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 그러나 지원 방법에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 사실을 포함하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.6051478994601185</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과는 일반학생전형을 통해 모집하지 않습니다. 따라서 수능 성적이 4.16인 경우, 정시 전형으로 지원하는 것은 불가능합니다.
+만약 조기취업형계약학과전형인 '나군'에 지원한다면, 해당 학과의 모집단위와 지원 자격을 확인해야 합니다. 게임공학과는 나군에서 모집하지 않는 것으로 알려져 있습니다.
+따라서 현재 정보로는 추가 합격이 불가능합니다. 동의대학교 게임공학과에 지원하려면, 해당 대학의 정시나 나군 전형을 통해 지원해야 합니다. 자세한 내용은 동의대학교 입학처 웹사이트를 참조하거나, 입학처와 직접 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 신설 여부에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트에서 제공된 합격 가능성에 대한 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 지원 가능성에 대한 판단을 어렵게 만든다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 경영정보학과의 신설 여부에 대한 정보는 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 신설 여부에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.532354915832519</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과가 신설되지 않았으며, 정시 모집군 변경 정보에서도 해당 학과의 변화를 확인할 수 없습니다. 따라서 현재 제공된 정보만으로는 경영정보학과에 지원이 가능한지 판단하기 어렵습니다.
+추가적인 정보나 최신 공고를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 지원 가능성에 대한 확정적인 판단을 내리지 않고, 추가적인 정보 확인을 요구하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 성적에 대한 정보는 언급되지 않았고, 이로 인해 응답의 사실성이 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 경영정보학과의 평균 성적에 대한 정보가 누락되어 있어 일관성이 부족합니다. 원본 텍스트의 성적 기준을 반영하지 않고 다른 전형에 대한 정보로 대체하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경영정보학과에 지원하기 위한 정보 확인 절차를 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 경영정보학과의 평균 성적에 대한 정보가 누락되어 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 경영정보학과에 대한 지원 절차를 설명하고 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.5690227379991489</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과에 지원이 가능한지 확정적으로 판단하기 어렵습니다. 경영정보학과의 모집요강, 지원 자격 요건 등을 확인해야 합니다.
+현재 주어진 정보는 다음과 같습니다:
+- 나군 학생부종합(평생학습자전형/성인학습자/재직자전형)에 대한 지원 자격 및 전형 요소 반영 비율
+- 평생학습자전형/성인학습자/재직자전형의 제출 서류와 평가 기준
+이 정보들만으로는 경영정보학과의 정시 성적 기준을 확인할 수 없습니다. 따라서, 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **동의대학교 입학 홈페이지** (https://ipsi. deu. ac. kr/main. do)를 방문하여 해당 학교의 모집요강을 확인합니다.
+2. **경영정보학과의 정시 성적 기준**을 찾아보세요. 이 정보는 일반적으로 모집요강에 포함되어 있습니다.
+3. **나군이 지원 가능한 전형인지 확인**합니다. 나군은 평생학습자전형/성인학습자/재직자전형인데, 경영정보학과의 정시에는 이러한 전형이 해당되지 않을 수 있습니다.
+만약 동의대학교 입학 홈페이지에서 필요한 정보를 찾지 못한다면, 학교 관계자에게 직접 문의하는 것이 가장 확실한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 현재 성적이 낮다는 사실을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실은 반영되었으나, 전체적으로 정확한 정보를 제공하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성에 대한 판단을 회피하는 방식으로 일관성이 떨어집니다. 원본 텍스트는 명확히 합격 가능성이 낮다고 언급하고 있으나, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 추가적인 데이터의 필요성을 언급하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지를 충분히 반영하지 못해 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 합격 가능성에 대한 명확한 판단을 회피하고 있어 정확성이 떨어집니다. 원본 텍스트의 정보를 충분히 활용하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 메시지를 충분히 반영하지 못해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.6106795479423556</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 합격 가능성을 판단하기 어렵습니다. 동의대학교 경영정보학과의 모집단위와 지원인원, 충원 합격 인원 등의 데이터가 필요합니다.
+이런 정보를 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋습니다. 해당 사이트에서 동의대학교 경영정보학과 일반학생전형에 대한 최신 정보와 합격 기준을 확인하실 수 있습니다.
+특히, 정시 성적 5.33이 충분한 점수인지 판단하기 위해서는 동의대학교 경영정보학과의 평균 합격 점수나 표준 편차 등의 데이터가 필요합니다. 이 정보를 통해 현재의 성적이 어느 정도 수준인지를 파악할 수 있습니다.
+추가적으로, 지원자의 개인적인 요소와 경쟁률 등도 고려해야 합니다. 따라서, 최신 정보를 확인하시고 결정을 내리시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오의약공학과가 최초 등록자를 모집하지 않는다고 주장하지만, 원본 텍스트에서는 바이오응용공학부의 평균 성적에 대한 정보와 합격 가능성에 대해 언급하고 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 지원이 불가능하다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제와의 관련성이 약해집니다. 그러나 지원 방법에 대한 추가 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히, 지원 가능성에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 주제와 관련된 내용을 포함하고 있습니다. 그러나 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.6784920927506707</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오의약공학과는 최초 등록자를 모집하지 않습니다. 따라서 성적이 3.33인 최초 등록자는 지원이 불가능합니다.
+만약 다른 전형을 통해 지원하고자 한다면, 학생부종합전형 등을 고려해 볼 수 있습니다. 하지만 이 경우에는 성적 외의 요소들도 중요하게 평가되기 때문에, 진로와 관련된 활동이나 특기사항 등이 잘 반영되어 있는지 확인하는 것이 좋습니다.
+더 자세한 정보를 얻고 싶다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시거나 동의대학교 입학처에 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 방사선학과의 신설 여부에 대한 정보가 없으며, 주어진 정보와 관련된 사실을 잘못 해석하고 있습니다. 방사선학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 정보도 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 방사선학과의 평균 등급에 대한 정보와 관련된 내용을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 방사선학과에 대한 질문에 대한 직접적인 답변을 제공하지 않지만, 추가 정보를 얻기 위한 웹사이트 링크를 제공하여 어느 정도 관련성을 유지하고 있습니다. 그러나 주된 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 방사선학과의 평균 등급에 대한 정보가 누락되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 방사선학과의 신설 여부에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 방사선학과에 대한 질문에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 주제와의 관련성이 떨어져서 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.5586210696572308</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과는 신설되지 않았으며, 전형 변경사항이나 교과성적 반영방법 등은 주어진 정보에서 확인할 수 없습니다. 현재 제공된 정보로는 정확한 답변을 드리기 어렵습니다.
+추가적인 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신의 전형 안내 및 학과 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 방사선학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하지 않고, 경쟁률 및 표준 변환 점수와 같은 다른 정보를 제공하고 있습니다. 그러나 이러한 정보는 원본 텍스트와 일치하지 않으며, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답은 이 점수가 낮다고 평가하고 있습니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과에 지원하는 경우에 대한 평가를 다루고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 사실을 반영하지 않기 때문에 완전한 관련성을 갖추고 있지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 2.66이라는 점수에 대한 평가가 원본 텍스트와 상반되며, 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 부족함을 보입니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 방사선학과 지원에 대한 평가를 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지는 않습니다. 일부 내용은 적절하지만, 전체적으로는 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.5899131499417962</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수를 방사선학과에서 정시로 지원하는 경우에 대해 평가해보겠습니다.
+방사선학과의 지원 경쟁률이 7.20이며, 평균 표준 변환 점수 합은 338.76입니다. 이는 현재 지원자의 점수가 약간 낮아 보입니다. 하지만 표준 편차가 5.40이라는 것을 고려하면, 2.66은 상대적으로 낮은 점수로 평가될 수 있습니다.
+이 점수를 기반으로 경쟁률과 지원 인원을 고려할 때, 이 점수는 약간 위험할 수 있습니다. 하지만 방사선학과의 경우, 지원 인원이 36명이고 충원 합격자는 5명이라는 것을 보면, 경쟁률이 높아도 충원 합격자 수가 적기 때문에 낮은 점수라도 충원 가능성이 있습니다.
+결론적으로, 현재의 점수는 약간 위험할 수 있지만, 방사선학과의 특성상 충원 합격자가 적다는 점을 고려하면, 이 점수로 지원하는 것은 여전히 가능한 범위입니다. 그러나 더 높은 점수를 얻기 위해 노력하거나 다른 전공을 고려해보는 것도 좋은 선택일 수 있습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 성적(4.12)과 경쟁률에 대한 구체적인 언급이 부족합니다. 또한, 학생부종합전형에 대한 설명이 추가되어 있지만, 이는 원본 텍스트의 주제와는 다소 다른 방향으로 나아가고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부종합전형에 대한 언급이 추가되어 원본의 초점과 다소 일치하지 않는 부분이 있습니다. 원본 텍스트는 정시 성적에 대한 합격 가능성을 다루고 있으나, 생성된 응답은 학생부종합전형에 대한 정보로 초점을 변경하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 요소들을 설명하고 있습니다. 그러나 원본 텍스트의 주요 내용인 정시 성적에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해지는 부분이 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 합격 여부에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 정보(예: 평균 성적)와는 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 경찰행정학과의 합격 가능성에 대한 정보를 적절히 설명하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 점이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.6030219315618615</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>2024학년도에 경찰행정학과의 농어촌 전형에 지원하셨다면, 정시 성적만으로는 합격 여부를 단정 짓기는 어렵습니다. 학생부종합전형에서는 학업성적 외에도 다양한 요소가 고려됩니다.
+특히 2024학년도의 경우 학생부 종합 평가 영역이 다음과 같습니다:
+1. **공동체역량**: 협업능력
+2. **학업역량**: 학업태도 / 학업성취
+3. **전공적합성**: 열정
+당신의 정시 성적이 3.66이라면, 이는 좋은 점수입니다. 그러나 합격 여부는 단순히 학업성적만으로 결정되는 것이 아니라, 위와 같은 평가 영역에서의 종합적인 평가를 받습니다.
+따라서 다음과 같은 요소들을 고려해 보시기 바랍니다:
+- **공동체역량**: 협력적 태도나 배려 등 공동체 목표를 위한 노력
+- **학업역량**: 학업에 대한 흥미와 주도적인 노력을 포함한 수업시간의 적극성, 학업 성취정도 및 성적 추이
+- **전공적합성**: 지원 전공과 관련된 활동이나 경험, 그리고 학업의지
+만약 이러한 요소들이 충분히 반영되었다면, 좋은 평가를 받을 가능성이 있습니다. 하지만 정확한 합격 여부는 해당 대학에서 실시하는 최종 심사 결과에 따라 결정됩니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대해 "매우 낮다"고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 가능성이 다를 수 있다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 일부 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 부분이 있습니다. 원문은 특정 학과에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 상황을 설명하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 등록자와 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 제시한 특정 학과에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 특정 학과에 대한 정보를 반영하지 않고 일반적인 상황을 설명하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있지만, 원문에서 제공하는 특정 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.5900263239150756</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 합격하는 경우는 매우 낮습니다. 정시 일반학생 전형에서는 수능 점수와 모집인원, 경쟁률이 중요한 요소로 작용합니다. 현재 정보만으로는 정확한 확률을 계산하기 어렵지만, 경쟁률이 높은 상황에서 25번의 예비 등록자 중에서 합격하는 것은 매우 어려울 것으로 보입니다.
+더 자세한 분석을 위해서는 해당 대학과 전공의 모집인원, 수능 점수 분포, 경쟁률 등을 고려해야 합니다. 만약 확실한 정보가 필요하다면, 대학 입학처에 문의하거나, 온라인 커뮤니티나 학부모 카페에서 정보를 얻는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 정보를 제공하고 있습니다. 또한, 학생부교과전형과 학생부종합 전형에 대한 정보는 원문에 포함되어 있지 않으며, 이는 원문과의 불일치를 초래합니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 경찰행정학과에 대한 성적 기준을 제시하고 있지만, 생성된 응답은 법경찰행정학부에 대한 성적 기준을 제시하고 있어 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교에 대한 질문에 답변하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 제공하는 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 논리적 흐름이 약간 깨집니다. 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보가 포함되어 있습니다. 법경찰행정학부의 존재 여부와 관련된 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 원문과의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 원문과의 맥락이 맞지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 법경찰행정학부에 대한 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.7657346256254618</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어가기 위해서는 정확한 평균 점수를 예측하기 어렵습니다. 하지만 일반적으로 동의대학교의 경우, 학생부교과전형에서 평균 등급이 B+ 이상이면 안정권으로 볼 수 있습니다.
+특히 법경찰행정학부는 경쟁률이 높기 때문에, 다음과 같은 점수를 목표로 설정하는 것이 좋습니다:
+1. **학생부교과 전형**: 평균 등급이 A- 이상이면 안정권에 들어갈 수 있으며, B+ 이상이면 문을 닫고 들어갈 수 있습니다.
+2. **학생부종합 전형**: 이전 학년도의 성적 평균 점수가 90점 이상이면 안정권에 들 수 있으며, 85점 이상이면 문을 닫고 들어갈 수 있습니다.
+따라서 법경찰행정학부에 정시로 들어가기 위해서는 다음과 같은 목표를 설정하는 것이 좋습니다:
+- **학생부교과 전형**: 평균 등급 A- 이상
+- **학생부종합 전형**: 성적 평균 90점 이상
+이러한 목표를 달성하기 위해 꾸준히 학업에 임하고, 필요한 경우 추가 공부를 하는 것이 중요합니다. 또한 동의대학교의 정시 모집인원과 경쟁률을 고려하여 개인적인 상황에 맞는 목표를 설정하는 것도 좋습니다.
+더 자세한 정보나 도움이 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시거나, 학교의 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 구체적인 정보를 제공하지 않고, 다른 학과의 정보를 통해 추론하는 방식으로 작성되었습니다. 원본 텍스트에서 제공된 아동학과의 평균 등급과 관련된 정보는 언급되지 않았고, 보육가정상담학과에 대한 직접적인 데이터가 부족하다는 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 아동학과에 대한 정보를 제공하고 있으며, 보육가정상담학과에 대한 정보가 없다는 주장은 일관성이 부족합니다. 그러나 보육가정상담학과에 대한 추론을 시도한 점은 긍정적입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 지원 자격을 확인하기 위한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 아동학과에 대한 정보가 주로 제공되었기 때문에 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 보육가정상담학과와 아동학과의 정보가 혼합되어 있어 약간의 일관성 부족이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정확한 정보를 제공하지 않으며, 아동학과의 평균 등급과 관련된 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 보육가정상담학과에 대한 정보가 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.5896837888268103</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 지원 자격을 확인하기 위해서는 해당 학과의 경쟁률, 평균 등급 등을 고려해야 합니다. 하지만 제공된 데이터에는 보육가정상담학과에 대한 정보가 없습니다.
+다만, 다른 관련 학과들의 정보를 통해 추론할 수 있습니다. 예를 들어, 동의대학교 의료보건생활대학 간호학과의 경우 2024년 경쟁률이 6.59이고 평균 등급이 3.37입니다. 이와 비교해보면:
+- 정시 산출 등급이 5.33인 경우, 간호학과의 평균 등급보다 높습니다.
+- 경쟁률이 6.59인 간호학과에 비해 보다 낮은 경쟁률을 가진 학과로 추정할 수 있습니다.
+따라서, 정시 산출 등급이 5.33인 경우 보육가정상담학과에 합격할 가능성이 높다고 추론할 수 있지만, 확실한 것은 아닙니다. 실제 합격 여부는 해당 학과의 경쟁률 및 지원자의 전체적인 성적을 고려해야 합니다.
+더 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정에 대한 일부 정보를 제공하지만, 원본 텍스트의 세부 사항을 완전히 반영하지 못하고 있습니다. 예를 들어, 등록 시간에 대한 정보가 잘못 기재되어 있으며, 원본 텍스트의 내용을 일부 생략하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 충원 합격자 발표와 관련된 정보가 다소 모호하게 표현되어 있어 일관성이 떨어집니다. 특히, 등록 시간에 대한 정보가 원본과 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 일부 세부 사항이 누락되어 있어 완전한 관련성을 갖추지 못하고 있습니다. 그러나 예비 번호에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 비교적 매끄럽습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어져서 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 잘못 전달하거나 생략하고 있어 정확성이 떨어집니다. 특히, 등록 시간에 대한 정보가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 정보가 부정확하게 전달되어 의미의 일관성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.7174733055978526</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 전형 일정과 관련된 정보는 제공된 자료 내에 포함되어 있지 않습니다. 제공된 정보 중에서는 충원 합격 3차 이후의 내용만 있습니다.
+현재 제공된 정보로는 다음과 같은 절차가 있습니다:
+1. 충원 합격자 3차 발표: 2024년 2월 15일 오후 7시부터
+2. 충원 합격자 3차 등록: 2024년 2월 15일 오후 9시부터 4시까지
+만약에 예비 12번을 받았다면, 이는 해당 전형에서의 점수가 상위권이라는 것을 의미합니다. 그러나 최종 합격 여부는 학교 측에서 발표하는 결과를 기다려야 합니다.
+따라서, 충원 합격자 3차 발표일인 2024년 2월 15일 오후 7시 이후에 학교 입학 안내 홈페이지를 통해 개별적으로 조회하거나, 입학관리팀에서 고지서를 받아 확인해야 합니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인하시거나, 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고, 유아교육학과에 지원하기 어려울 것이라는 점을 언급하고 있습니다. 그러나 "대부분의 학과에 지원이 가능할 것"이라는 부분은 다소 과장된 표현으로, 실제로는 특정 학과의 평균 성적을 고려해야 하므로 4점으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 유아교육학과에 대한 정보와 관련하여 다소 일관성이 부족합니다. 유아교육학과의 평균 성적이 4.18이라는 사실을 언급하지 않고, "확실한 입학을 보장받기는 어렵다"는 표현이 다소 모호하게 느껴집니다. 따라서 3점으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 유아교육학과에 대한 정보와 지원 가능성에 대해 적절하게 언급하고 있습니다. 따라서 5점으로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 유아교육학과에 대한 정보가 더 명확하게 연결되었으면 좋았을 것 같아 4점으로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 유아교육학과의 지원 가능성에 대한 정보를 제공하고 있으나, 평균 성적에 대한 구체적인 수치를 언급하지 않아 정확성에서 다소 부족함이 있어 4점으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으나, 일부 정보의 정확성과 일관성에서 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 일부 표현이 다소 모호하게 느껴질 수 있어 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 이해하기 어려울 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.7582274285345645</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 정시 모집에서 이와 같은 성적이면 대부분의 학과에 지원이 가능할 것입니다. 그러나 특정 학과의 경우 입학 기준이 더 까다로울 수 있으므로, 유아교육학과의 경우에도 이 성적만으로는 확실한 입학을 보장받기는 어렵다고 할 수 있습니다.
+유아교육학과의 경우, 정시 모집뿐만 아니라 특별전형이나 학생부종합 등 다양한 전형이 있을 수 있으므로, 유아교육학과에 대한 자세한 정보를 확인하시고, 필요하다면 추가 지원을 고려해보는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 보육가정상담학과의 수능 4개 영역 등급 평균이 3.37로 언급되었으나, 이는 원본 텍스트에 명시된 아동학과의 영어 등급 평균 6.33 및 수능 4개 영역 등급 평균 7.08과 일치하지 않습니다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않아 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 평균 등급과 경쟁률에 대한 정보가 원본과 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 잘 짜여져 있으나, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 부분이 있으나, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.632957151907986</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하셨다면, 합격 가능성은 어느 정도 있을 것입니다. 하지만 정확한 판단을 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **평균 및 표준 편차**: 제공된 데이터에서 보육가정상담학과의 수능 4개 영역 등급의 평균이 3.37이고, 표준 편차가 0.29입니다. 이는 지원자의 수능 점수가 평균보다 약간 높은 것을 의미합니다.
+2. **경쟁률**: 보육가정상담학과의 경쟁률은 6.59로 매우 높습니다. 이는 많은 지원자가 동일한 학과에 지원하고 있다는 것을 나타냅니다.
+3. **충원 합격자 수**: 충원 합격자는 37명으로, 이는 많은 학생들이 합격을 향해 경쟁하고 있음을 의미합니다.
+4. **등급 평균**: 지원자의 등급이 4.16이라면, 이는 평균보다 약간 높은 수준입니다. 하지만 경쟁률이 매우 높기 때문에, 이 점수만으로 합격을 보장할 수는 없습니다.
+따라서, 4.16이라는 등급을 가지고 지원하셨다면, 충분한 가능성은 있으나, 확실하게 합격할 수 있는 것은 아닙니다. 추가적으로 지원자의 경력이나 기타 서류가 중요한 역할을 할 수 있습니다. 따라서, 최선의 준비를 하고, 가능한 모든 서류와 증빙 자료를 체크하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 정시 모집을 실시한다고 언급하고 있으며, 이는 명백한 사실의 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답에서는 정시 모집이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보(정시 지원 여부)에 대해 잘못된 정보를 제공하고 있지만, 정시 모집에 대한 구체적인 수치를 제시하고 있어 일부 관련성은 있으나, 전반적으로 주제와 맞지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 흐름을 보입니다. 원문과의 연결이 없기 때문에 일관성에 문제가 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4335924367945138</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 ICT융합공과대학 소프트웨어공학부는 정시 모집을 실시하며, 지원자의 수능 4개 영역(가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다. 이는 해당 학과에서 충원된 합격자들의 평균 점수가므로, 정시로 들어갈 수 있는 기준이 될 수 있습니다.
+따라서 소프트웨어공학부에 정시로 지원하려면 450점 이상의 표준 변환 점수를 받아야 합니다. 하지만 이는 최소 기준이며, 경쟁률이 높아질 경우 더 높은 점수가 필요할 수 있습니다.
+자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 면접과 서류 평가의 중요성을 강조하고 있습니다. 그러나 원문에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 평가 요소를 설명하고 있으며, 면접과 서류 평가의 중요성을 잘 연결하고 있습니다. 다만, 원문에서 명시된 "학생부 교과성적"에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 면접과 서류 평가에 대한 구체적인 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 약간의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "학생부 교과성적"에 대한 언급이 없어서 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.6323331881901672</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 면접 점수와 세특(서류평가)를 모두 중요하게 보게 됩니다. 특히, 이 두 가지 평가 요소는 합격 여부에 큰 영향을 미치므로 각각 잘 준비하는 것이 좋습니다.
+면접에서는 지원동기, 학업계획, 전공적합성 등에 대한 답변이 주요합니다. 면접 질문 공통문항을 참고하여 답변 내용을 구체적으로 준비해보세요. 또한, 자신의 진로와 전공과의 관련성을 잘 설명하는 것이 중요합니다.
+서류 평가는 학교생활기록부를 기반으로 합니다. 이에 대한 세특 내용은 지원동기와 학업계획, 전공적합성 등에 대한 서술을 포함해야 하며, 실제 경험과 성장과정을 구체적으로 설명하는 것이 중요합니다.
+따로 준비해야 하는 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 (고교 졸업(예정)자)
+2. 검정고시 출신자의 경우 검정고시 합격증
+3. 기타 필요한 서류 (면접 시 제출서류 진위 여부를 확인하기 위해 작성된 면접질문지)
+이러한 준비를 통해 나군 학생부종합(조기취업형계약학과전형)의 면접평가와 세특 평가에서 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 해당 학부의 최초합격자 평균 성적에 대한 구체적인 정보가 제공되고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있음을 언급하고 있지만, 생성된 응답은 정보가 없다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보가 없다고 하면서도 관련된 다른 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 거리가 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성이 떨어지는 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 동의대학교 소프트웨어공학부에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있지만, 관련된 정보를 제공하려는 시도가 보입니다. 그러나 원본의 맥락과는 맞지 않기 때문에 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.5796651883296533</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 소프트웨어공학과에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 해당 학과의 모집단위와 지원자의 경쟁률, 충원 합격자 등의 정보가 필요합니다.
+제공된 데이터에서는 인문사회과학대학 내의 다른 학과들에 대한 정보만 있습니다. 동의대학교 소프트웨어공학부의 경우, 해당 학과의 모집단위와 지원자의 경쟁률 등을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나 동의대학교 입시 홈페이지에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있어 일관성이 부족합니다. 두 학과의 정보가 혼동되어 있으며, 이는 일관성을 해칩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있어 관련성이 떨어집니다. 그러나 일부 정보는 입시와 관련이 있으므로 부분적으로 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보로 구성되어 있지만, 소프트웨어융합학과와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다. 정보가 명확하게 연결되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 잘못된 정보를 제공하고 있으며, 사실과 일치하지 않는 내용이 포함되어 있습니다. 특히, 소프트웨어공학부의 평균 등급과 관련된 정보는 소프트웨어융합학과와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 질문의 맥락과 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다. 소프트웨어융합학과에 대한 질문에 소프트웨어공학부의 정보를 제공하는 것은 의미적으로 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해하기 쉽지만, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.6068386651132436</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원자의 평균 5등급을 가지고 충원 합격하였습니다. 하지만 이는 단일 영역 등급만을 기준으로 한 것이므로, 전체 수능 점수와 영어 점수를 고려해야 합니다.
+소프트웨어공학부의 경우:
+- 평균 5등급이지만, 실제 지원에서는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급을 함께 고려합니다.
+- 이 학과의 평균 수능 4개 영역 등급은 4.12이며, 표준 편차는 0.32입니다.
+따라서, 단순히 5등급만으로는 충분하지 않을 수 있습니다. 전체적인 점수와 성적을 고려하여 지원하는 것이 좋습니다. 자세한 정보는 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 최초합격자와 최종등록자의 평균 등급에 대한 정보는 누락되어 있습니다. 또한, "경쟁률을 고려하면 어렵다고 할 수 있다"는 주장은 원본 텍스트의 긍정적인 판단과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 긍정적인 결론과 상반된 내용을 포함하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 판단했으나, 생성된 응답은 경쟁률을 이유로 어려울 것이라고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 긍정적인 판단을 간과하고 있습니다. 그러나 여전히 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 결론과 상반된 주장을 포함하고 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 경쟁률을 강조하며 합격 가능성을 낮추는 주장을 하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족한 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 긍정적인 판단을 무시하고 부정적인 해석을 추가하여 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.605033858711211</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 경쟁률을 고려하면 어렵다고 할 수 있습니다.
+신소재공학과의 경우:
+- 평균 국어+수학+탐구(가산점 포함) 표준 변환 점수 합: 271.64
+- 표준 편차: 19.52
+당신의 점수가 평균보다 약간 낮은 편이지만, 표준 편차를 고려하면 여전히 가능성이 있습니다. 그러나 경쟁률이 높기 때문에 충분한 준비와 노력이 필요합니다.
+자세한 정보는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요하지 않다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 설명을 제공합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.7169676770687284</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 이 전형은 주로 수능 점수에 따라 선발되므로, 자기소개서 작성은 요구되지 않습니다.
+자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나 대구교육대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있으며, 추가 모집에 대한 언급도 포함되어 있습니다. 그러나, 구체적인 수치나 데이터에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관성을 유지하고 있으며, 추가 모집에 대한 정보도 적절하게 언급하고 있습니다. 다만, 특정 단과대학 및 모집단위에 대한 정보가 필요하다는 점에서 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 정시 모집과 추가 모집에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 특정 단과대학 및 모집단위에 대한 정보가 필요하다는 점에서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 모집에 대한 정보도 정확하게 언급하고 있습니다. 그러나 구체적인 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 정보 누락과 일관성 부족이 느껴질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 특정 단과대학 및 모집단위에 대한 정보가 필요하다는 점에서 약간의 의미적 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.6108194417343444</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 확정적인 답변을 드리기 어렵습니다. 동의대학교의 특정 단과대학 및 모집단위에 대한 자세한 정보가 필요합니다. 예를 들어, 해당 모집단위의 경쟁률, 지원 인원, 충원 합격자 수 등이 중요하게 작용할 수 있습니다.
+특정 단과대학과 모집단위의 상세 정보를 확인하시기 바랍니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 홈페이지에서 해당 정보를 찾아보실 수 있습니다. 또한, 해당 홈페이지에서는 추가모집에 대한 공지사항도 확인하실 수 있으니 참고해주세요.
+만약 더 자세한 조언이 필요하시다면, 제공된 데이터와 함께 특정 단과대학 및 모집단위의 상황을 알려주시면 도움을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 정시 등급 기준에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에서 제공된 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고 있으며, 원본 텍스트에서 언급된 평균 등급에 대한 정보와 상충하는 내용이 포함되어 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지 않지만, 링크를 참조하라는 언급이 있어 어느 정도 관련성을 유지하고 있습니다. 그러나 주요 질문에 대한 답변이 부족하여 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다. 이로 인해 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않지만, 링크를 제공하여 추가 정보를 찾을 수 있도록 하고 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6223871448626944</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 등급 기준이 포함되어 있지 않습니다. 관련 정보가 추가되면 답변을 제공하겠습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do] 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 447점의 표준 변환 점수가 작년 신소재공학과의 평균 점수를 넘는 가능성이 있다고 언급하지만, 원문에서는 이 점수가 평균 점수보다 "훨씬 높다"고 명확히 언급하고 있습니다. 따라서, 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, "확률이 낮다"는 주장은 원문에서의 긍정적인 가능성과 모순됩니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가적인 정보 요청에 대한 안내도 포함되어 있습니다. 그러나 원문에서의 긍정적인 가능성을 간과하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 특히, 점수의 가능성에 대한 언급이 모호하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충되는 내용을 포함하고 있으며, 특히 합격 가능성에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 일관성, 사실성, 정확성에서 부족함을 보이고 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문에서의 긍정적인 가능성을 부정적으로 해석하고 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7362850778975334</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>447점의 표준 변환 점수가 동아대학교 정시에서 작년 신소재공학과 최종 평균 점수를 넘는 것은 가능성이 있지만, 확률이 낮습니다. 작년에 비해 점수가 약간 높아졌을 수 있으나, 표준 편차가 큰 영역이나 지원자의 다양성 등 여러 요인들이 고려되어야 합니다.
+만약 더 자세한 정보를 원하신다면, 동아대학교의 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 직접 입학처에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 언급하고 있지만, 생성된 응답에서는 4.3 등급대의 성적이 4.1~4.2로 변환될 경우 붙기 어렵다고 잘못 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 4.1~4.2 등급대의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 반대로 4.3 등급대의 성적이 붙기 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 제공하지 못하고 있습니다. 그러나 여전히 신소재공학부와 관련된 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 내용을 잘못 해석하여 일관된 주장을 하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본에서 제시된 성적 기준과 합격 가능성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 잘못된 해석으로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5161454957559881</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 변환될 경우, 신소재공학부 일반 학생 전형에 붙는 것은 어렵다고 판단됩니다. 신소재공학부의 경우 보통 높은 점수를 요구하기 때문에 현재의 성적만으로는 충분한 경쟁력을 갖추지 못할 것으로 보입니다.
+더 자세한 정보와 지원 가능성에 대한 확인을 위해서는 해당 대학의 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 성적 반영 방식에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 성적 데이터(모집 인원, 지원 인원, 경쟁률 등)를 포함하지 않고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 반영 영역과 비율에 대한 정보는 원본 텍스트에 명시된 성적 데이터와는 일관성이 없습니다. 이로 인해 일관성 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 수능 성적 반영 방식에 대한 정보를 제공하므로 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 정보가 누락되어 있어 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방식에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 데이터가 누락되어 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 정확성에서 일부 부족함이 있어 종합적으로 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 성적 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7350037359958089</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과로 지원하실 경우, 수능 성적이 다음과 같이 반영됩니다:
+1. **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+2. **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 인공지능학과 수능 일반학생전형으로 지원하려면 국어, 수학, 영어, 탐구 등에서 좋은 성적을 받는 것이 중요합니다. 특히, 수학은 미적분 또는 기하 중 선택하여 응시하는 것을 추천드립니다.
+추가로, 2024년도부터 한의예과에서는 수학(미적분 or 기하) 응시자와 수학(확률과통계) 응시자의 반영 방식이 조금 다릅니다. 따라서, 인공지능학과는 일반적으로 위와 같은 성적을 요구하지만, 특정 과목에 대한 특별한 요구사항이 있을 수 있으므로 공식 홈페이지를 확인하시거나 추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다.
+[공식 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)
+자세한 내용은 동의대학교의 공식 웹사이트에서 확인하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 평균 점수와 표준 편차를 언급하고 있지만, 이는 원본 텍스트의 내용과 관련이 없습니다. 원본 텍스트는 5.27의 성적으로 충원 합격이 가능한 학과에 대한 정보를 제공하고 있으며, 생성된 응답은 이와 관련된 정보를 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 특정 학과의 성적 기준을 제시하고 있지만, 생성된 응답은 평균 점수와 표준 편차에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 충원 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 평균 점수와 표준 편차에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 성적 기준과 관련된 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해는 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.5625562026882293</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>373.50 평균과 56.83의 표준 편차를 가지고 있는 동의대학교의 경우, 지원자의 성적을 평균으로부터 얼마나 떨어져있는지를 확인해보겠습니다.
+평균 점수는 373.50이고, 표준 편차는 56.83입니다. 따라서, 5.27이라는 점수를 가지고 있는 지원자의 성적은 평균으로부터 약 1.45 표준편차 떨어져 있습니다 (단위: 표준편차).
+이 결과는 동의대학교에서 지원하는 경우 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 그러나, 정확한 확률을 알기 위해서는 해당 학과의 모집 인원, 지원 인원, 그리고 경쟁률 등을 고려해야 합니다.
+만약 특정 학과에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 평균 수능 4개 영역 등급이 5.32로 언급되었으나, 이는 원본 텍스트에서 제공된 4.49와 상충합니다. 또한, 지원자의 성적(4.2)이 평균보다 높다고 언급했지만, 실제로는 평균보다 낮은 수치입니다. 이러한 사실적 오류로 인해 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않습니다. 원본 텍스트는 4.2의 성적이 평균보다 높다고 주장하는 반면, 생성된 응답은 4.2가 평균보다 낮다고 주장합니다. 이러한 상충으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 지원 자격과 경쟁률을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 왜곡되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제공된 정보는 원본 텍스트와 여러 면에서 부정확합니다. 특히 평균 수능 등급과 지원자의 성적에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다. 관련성은 높지만, 다른 차원에서의 부족함이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 정보의 왜곡으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.5908463693036748</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원 자격과 경쟁률을 고려해보겠습니다.
+- **지원 인원**: 146명
+- **모집 인원**: 30명
+- **경쟁률**: 약 4.87 (146 / 30)
+2024학년도 동의대학교 소프트웨어공학부의 평균 수능 4개 영역 등급은 5.32이며, 이는 지원자의 성적(4.2)보다 높습니다. 따라서 경쟁률이 매우 높고, 평균 수능 점수가 높기 때문에 합격 가능성은 낮다고 볼 수 있습니다.
+하지만, 정시 모집의 경우 다양한 요소가 고려되므로, 지원자의 전반적인 성적과 특성 등을 종합적으로 판단해야 합니다. 만약 다른 과목에서 우수한 성적이 있거나, 면접 등에서 좋은 평가를 받을 수 있다면 합격 가능성은 조금 더 높아질 수 있습니다.
+만약 자세한 정보가 필요하다면, 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 언급도 포함되어 있습니다. 그러나, 응답이 제공된 정보만으로는 확정적인 답변을 할 수 없다고 언급한 부분은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반하고 있으나, 약간의 불확실성이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있습니다. 화학환경공학부의 평균 성적과 지원 가능성에 대한 언급이 일치하며, 추가합격 가능성에 대한 언급도 원본의 내용을 반영하고 있습니다. 다만, "확정적으로 답변하기 어렵다"는 부분이 원본의 긍정적인 어조와 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 화학환경공학부의 지원 가능성에 대한 질문에 대해 적절한 정보를 제공하고 있으며, 관련 웹사이트를 참조하라는 조언도 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 가독성을 저해할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 "확정적으로 답변하기 어렵다"는 부분이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 기준과 지원 자격에 대한 언급이 정확합니다. 그러나 "확정적으로 답변하기 어렵다"는 부분이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "확정적으로 답변하기 어렵다"는 표현이 다소 부정적인 뉘앙스를 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 명확한 정보 전달이 이루어지고 있으나, 약간의 복잡함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.6402389530791567</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부 일반학생전형에 지원 가능한지 확정적으로 답변하기 어렵습니다. 지원 자격과 성적 기준 등은 학교별로 상세하게 정해져 있으며, 특정 전형의 지원 가능 여부를 확인하려면 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나 학교 관계자에게 직접 문의하는 것이 가장 정확합니다.
+특히 성적 기준이 3.92로 나오더라도, 해당 전형의 최소 성적 기준과 기타 지원 자격 조건 등을 확인해야 합니다. 웹사이트에서 공개된 정보를 통해 최신 지원 자격 및 기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하는 대신, 불확실성을 강조하고 있으며, 원본 텍스트에서 제공된 구체적인 데이터와 결론을 무시하고 있습니다. 이는 사실과 일치하지 않으며, 원본의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 결론과 상반된 내용을 포함하고 있습니다. 원본에서는 성적이 평균보다 높아 합격 가능성이 높다고 판단했으나, 생성된 응답은 확정적인 답변을 피하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 정보에 대한 직접적인 답변을 제공하지 않고 추가적인 정보와 조언을 제시하고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 제공된 데이터에 대한 정확한 해석을 하지 않고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미의 적절성은 있지만, 원본의 의도를 완전히 전달하지 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.6311344954956509</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 정시 합격이 가능한지 확정적으로 답변하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집단위별 경쟁률과 지원 인원**: 각 모집단위별로 지원 인원과 경쟁률이 다르므로, 특정 과목의 평균 점수만으로 합격 가능성을 판단하기 어렵습니다.
+2. **학과 별 입학성적 기준**: 동의대학교 화학환경공학부에 대한 정확한 입학성적 기준(평균점수, 등급 등)이 제공되지 않았기 때문입니다.
+3. **개인별 지원 자격 및 경쟁 상황**: 개인의 지원 자격과 경쟁 상황도 중요한 요소로 작용합니다.
+**추천 사항:**
+- 동의대학교 화학환경공학부에 대한 정확한 입학성적 기준을 확인하세요.
+- 해당 학과의 최근 입학성적 분석 자료를 참고해보세요. 이는 일반적으로 대학 홈페이지나 입학처에서 제공됩니다.
+- 만약 불확실성이 크다면, 동의대학교 입학처에 직접 문의하여 최신 정보와 정확한 답변을 받으시는 것이 좋습니다.
+더 많은 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2라는 점수에 대한 판단을 어렵다고 언급하고 있으며, 영화학과의 경쟁률과 평균 점수를 확인해야 한다고 설명합니다. 그러나 원본 텍스트에서 제공된 정보에 따르면, 4.2라는 점수는 영화학과에 합격할 가능성이 있다고 명시되어 있습니다. 따라서 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2라는 점수에 대한 해석이 상충합니다. 원본 텍스트는 4.2점이 합격 가능성이 있다고 판단하는 반면, 생성된 응답은 그 점수에 대한 판단이 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수에 대한 추가적인 정보와 조언을 제공하고 있으며, 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 관계에서 약간의 비일관성이 있어 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 4.2라는 점수에 대한 해석이 원본 텍스트와 상충하여 정확성이 떨어집니다. 원본 텍스트는 합격 가능성을 언급하고 있으나, 생성된 응답은 그 가능성을 부정적으로 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 4.2라는 점수에 대한 추가적인 설명을 제공합니다. 그러나 원본 텍스트의 맥락과 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.6187926301413749</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터만으로는 충분히 판단하기 어렵습니다. 영화학과의 경쟁률, 평균 점수 등을 확인해야 합니다.
+현재 주어진 정보에서는 특정 단과대학이나 모집단위의 성적 분포와 평균을 알 수 있습니다. 예를 들어, "인문사회과학대학 / 국어국문학과"의 경우 평균 점수가 293.50이고 표준 편차가 9.86입니다. 이는 매우 넓은 범위 내에 있는 점수라는 것을 의미합니다.
+4.2라는 점수는 수능 4개 영역 등급의 평균을 나타내는 것인지, 아니면 국어+수학+탐구(2개)의 표준 변환 점수 합을 나타내는 것인지 명확하지 않습니다. 따라서 정확한 판단을 위해서는:
+1. 해당 단과대학 및 모집단위의 평균 점수와 표준 편차를 확인해야 합니다.
+2. 지원자의 성적은 수능 4개 영역 등급으로 변환되어야 하는지, 아니면 국어+수학+탐구(2개)의 표준 변환 점수 합으로 변환되어야 하는지를 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 문장도 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.9601999933161308</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
